--- a/biology/Botanique/Tillandsia_cauligera/Tillandsia_cauligera.xlsx
+++ b/biology/Botanique/Tillandsia_cauligera/Tillandsia_cauligera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia cauligera Mez est une plante de la famille des Bromeliaceae.
 L'épithète cauligera signifie « qui porte une tige » et se rapporte à l'aspect général de la plante.
@@ -512,12 +524,14 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia cauligera Mez, in Repert. Spec. Nov. Regni Veg. 3: 42 (1906)
-Diagnose originale[1] :
+Diagnose originale :
 « Foliis caulem elongatum dense quaquaverse vestientibus, utrinque lepidibus magnis dense dispositis pruinoso-micantibus; scapo elongato folia plus quam duplo superante; inflorescentia simplicissima, laxiuscule flabellata; bracteis ad 25 mm longis sepala multo superantibus; floribus erectis; sepalis antico libero posticis binis inter sese ad 3 mm connatis; petalis in alabastro violaceis. »
-Type : Mez[1] cite comme type deux spécimens à B, collectés par Weberbauer à des dates et lieux différents : n° 2415 et n° 4050, l'un fleuri l'autre non, mais ne précise pas lequel il choisit comme holotype. Le type est, en toute logique, l'exemplaire fleuri mais sa désignation n'est pas explicite : leg. Weberbauer, n° 4050, 1904-05-15 ; « dept. Cajamarca prope Hualgayoc, ad Hacienda La Tahona, alt. 2600 m » ; [Holotypus] B (Her. Berol.).
+Type : Mez cite comme type deux spécimens à B, collectés par Weberbauer à des dates et lieux différents : n° 2415 et n° 4050, l'un fleuri l'autre non, mais ne précise pas lequel il choisit comme holotype. Le type est, en toute logique, l'exemplaire fleuri mais sa désignation n'est pas explicite : leg. Weberbauer, n° 4050, 1904-05-15 ; « dept. Cajamarca prope Hualgayoc, ad Hacienda La Tahona, alt. 2600 m » ; [Holotypus] B (Her. Berol.).
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(aucune)</t>
         </is>
@@ -577,6 +593,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,11 +620,13 @@
           <t>Écologie et habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Biotype : plante herbacée vivace, rameuse ; saxicole[1], rupicole[2] ou terrestre[2].
-Habitat : falaises[2].
-Altitude : 2500-3000 m[2] ; 2400-3100 m[3].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Biotype : plante herbacée vivace, rameuse ; saxicole, rupicole ou terrestre.
+Habitat : falaises.
+Altitude : 2500-3000 m ; 2400-3100 m.</t>
         </is>
       </c>
     </row>
@@ -634,13 +654,15 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Amérique du sud :
  Pérou
-Cajamarca [1]
-Tarma [2]
-Cuzco[2]</t>
+Cajamarca 
+Tarma 
+Cuzco</t>
         </is>
       </c>
     </row>
@@ -668,9 +690,11 @@
           <t>Comportement en culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Culture délicate[3].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Culture délicate.
 </t>
         </is>
       </c>
